--- a/data/trans_orig/P70A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>84524</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76071</v>
+        <v>75720</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90852</v>
+        <v>91028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8538029313409023</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7684217229151418</v>
+        <v>0.7648705438465482</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9177236304383013</v>
+        <v>0.9195049707335119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -762,19 +762,19 @@
         <v>86608</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80166</v>
+        <v>78917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93169</v>
+        <v>92410</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8361551289774403</v>
+        <v>0.8361551289774404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7739620620616389</v>
+        <v>0.7618985999963084</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8995014049937795</v>
+        <v>0.8921723854723104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -783,19 +783,19 @@
         <v>171131</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>160760</v>
+        <v>161024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180276</v>
+        <v>179939</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8447794419818545</v>
+        <v>0.8447794419818544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7935823133390391</v>
+        <v>0.7948873008691688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8899203217471826</v>
+        <v>0.8882610906323204</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2028</v>
+        <v>2034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11564</v>
+        <v>12173</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0554907250558998</v>
+        <v>0.05549072505589979</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02048308407666917</v>
+        <v>0.02054291218896025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1168112269804933</v>
+        <v>0.1229643323892466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>8974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4713</v>
+        <v>5156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15087</v>
+        <v>15927</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08663914446982356</v>
+        <v>0.08663914446982357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04550315767084106</v>
+        <v>0.04977814192463458</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1456524443421801</v>
+        <v>0.1537659169982765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>14467</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8098</v>
+        <v>8196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21920</v>
+        <v>22063</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07141720844142441</v>
+        <v>0.07141720844142439</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03997373673913965</v>
+        <v>0.04045977663660143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1082051719533789</v>
+        <v>0.1089150217681499</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8980</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4325</v>
+        <v>3700</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16844</v>
+        <v>16877</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09070634360319796</v>
+        <v>0.09070634360319793</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04368475731470271</v>
+        <v>0.03737876934122768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1701513965381239</v>
+        <v>0.1704801909986729</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -904,19 +904,19 @@
         <v>7997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4091</v>
+        <v>4536</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12750</v>
+        <v>13216</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07720572655273614</v>
+        <v>0.07720572655273616</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03949752348086873</v>
+        <v>0.04379730763760972</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1230988270443101</v>
+        <v>0.1275912670009063</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -925,19 +925,19 @@
         <v>16976</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10800</v>
+        <v>10436</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26505</v>
+        <v>25184</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08380334957672113</v>
+        <v>0.08380334957672111</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05331152378677504</v>
+        <v>0.05151817338161268</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1308380273643001</v>
+        <v>0.1243207971257349</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>55196</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47156</v>
+        <v>47296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62300</v>
+        <v>62359</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7604739056939831</v>
+        <v>0.7604739056939832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6497043420806521</v>
+        <v>0.6516301005558853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8583493125772942</v>
+        <v>0.859159565839313</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -1050,19 +1050,19 @@
         <v>65733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57662</v>
+        <v>57780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70538</v>
+        <v>71058</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8363996474122402</v>
+        <v>0.8363996474122398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7337120433608502</v>
+        <v>0.7352122299495191</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8975501919818678</v>
+        <v>0.9041553464891487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>135</v>
@@ -1071,19 +1071,19 @@
         <v>120929</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>109271</v>
+        <v>108922</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129647</v>
+        <v>129293</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7999456948859134</v>
+        <v>0.7999456948859136</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7228295309895411</v>
+        <v>0.7205237556656758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.857615031371123</v>
+        <v>0.8552778296017562</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>12187</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6484</v>
+        <v>6946</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19895</v>
+        <v>20036</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1679152994230875</v>
+        <v>0.1679152994230876</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08933859079670521</v>
+        <v>0.0956941738105469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2741013387171539</v>
+        <v>0.2760549515006693</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1121,19 +1121,19 @@
         <v>4398</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1874</v>
+        <v>1380</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9664</v>
+        <v>9245</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.05595693072924693</v>
+        <v>0.05595693072924691</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02384116765767414</v>
+        <v>0.0175580922012604</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1229651712720257</v>
+        <v>0.1176301571090928</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1142,19 +1142,19 @@
         <v>16585</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10321</v>
+        <v>10379</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25761</v>
+        <v>25385</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1097110984848297</v>
+        <v>0.1097110984848298</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06827459160405161</v>
+        <v>0.06865847220678722</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1704115474288042</v>
+        <v>0.1679234839980575</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>5198</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1761</v>
+        <v>1787</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11497</v>
+        <v>11687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07161079488292912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0242568894643267</v>
+        <v>0.02462104352237849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1584014922498192</v>
+        <v>0.1610253968005015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1192,19 +1192,19 @@
         <v>8460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3826</v>
+        <v>4046</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16427</v>
+        <v>16675</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1076434218585131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04867961353034111</v>
+        <v>0.05148213918481373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2090177535946831</v>
+        <v>0.2121715854976664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1213,19 +1213,19 @@
         <v>13657</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7536</v>
+        <v>7395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24321</v>
+        <v>23519</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09034320662925673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04985267303199217</v>
+        <v>0.04891867006249491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1608853943853323</v>
+        <v>0.1555791456923102</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>49678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43003</v>
+        <v>42624</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54882</v>
+        <v>55232</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8096997459945984</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7008978703536995</v>
+        <v>0.6947187036705561</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8945167214440062</v>
+        <v>0.9002238857456312</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1338,19 +1338,19 @@
         <v>11426</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7809</v>
+        <v>8047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13681</v>
+        <v>13779</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7311226854030543</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.499665960980362</v>
+        <v>0.5148983188669528</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8754239548646489</v>
+        <v>0.8817162755020957</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -1359,19 +1359,19 @@
         <v>61104</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52763</v>
+        <v>53417</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67460</v>
+        <v>67195</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7937479240379861</v>
+        <v>0.7937479240379863</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6853976038874142</v>
+        <v>0.6938883022472397</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8763048724350984</v>
+        <v>0.872865244373021</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>5239</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1896</v>
+        <v>1846</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11049</v>
+        <v>11771</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08539292956559473</v>
+        <v>0.08539292956559474</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03090705946274337</v>
+        <v>0.03009413038606494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1800926267741226</v>
+        <v>0.1918500808425034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1409,19 +1409,19 @@
         <v>2150</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>547</v>
+        <v>702</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5073</v>
+        <v>4989</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1375437727620125</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03498070628546087</v>
+        <v>0.04491016105193409</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3245778258995683</v>
+        <v>0.3192653492232192</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1430,19 +1430,19 @@
         <v>7389</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3321</v>
+        <v>3510</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14679</v>
+        <v>14759</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09598000115231151</v>
+        <v>0.09598000115231149</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04314116417145342</v>
+        <v>0.04559992046163392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1906775761397914</v>
+        <v>0.191720968984651</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>6436</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2785</v>
+        <v>2532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12234</v>
+        <v>12194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1049073244398069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0453846205786925</v>
+        <v>0.04126456594407242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1994079418168697</v>
+        <v>0.1987554175705317</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1480,19 +1480,19 @@
         <v>2052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5781</v>
+        <v>5302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1313335418349333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03103594901773914</v>
+        <v>0.0308771236179879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3699354056478315</v>
+        <v>0.3392860632000907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1501,19 +1501,19 @@
         <v>8489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4211</v>
+        <v>4093</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14773</v>
+        <v>14913</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1102720748097024</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05470747122402052</v>
+        <v>0.05316374214805543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1919059080557433</v>
+        <v>0.1937149556249862</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>73755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61589</v>
+        <v>61443</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85451</v>
+        <v>86046</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6254737863316034</v>
+        <v>0.6254737863316036</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5223030289105426</v>
+        <v>0.5210638590947181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7246681817224141</v>
+        <v>0.7297085207305415</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -1626,19 +1626,19 @@
         <v>97140</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87441</v>
+        <v>87771</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105103</v>
+        <v>105021</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7622751691183079</v>
+        <v>0.7622751691183081</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6861683380366663</v>
+        <v>0.6887596524171912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8247634904956116</v>
+        <v>0.824117531241873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>185</v>
@@ -1647,19 +1647,19 @@
         <v>170894</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155183</v>
+        <v>154601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185010</v>
+        <v>184198</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6965274292249145</v>
+        <v>0.6965274292249144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6324900428322405</v>
+        <v>0.6301172084603408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7540613157932603</v>
+        <v>0.7507482470749979</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>16990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10082</v>
+        <v>10271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27084</v>
+        <v>26868</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1440833643177946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.085499578482019</v>
+        <v>0.08710698266627896</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2296820713406925</v>
+        <v>0.2278523707430212</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1697,19 +1697,19 @@
         <v>13619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8305</v>
+        <v>8273</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20422</v>
+        <v>20486</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1068671225852337</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06517178736831039</v>
+        <v>0.06491872141437295</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1602583883884725</v>
+        <v>0.1607594267404398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1718,19 +1718,19 @@
         <v>30609</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22450</v>
+        <v>21120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42666</v>
+        <v>42067</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1247535191361894</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09150210766018631</v>
+        <v>0.08608001508163389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1738954378024951</v>
+        <v>0.171455394638382</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>27173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17752</v>
+        <v>17440</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41086</v>
+        <v>38279</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2304428493506017</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1505429227441023</v>
+        <v>0.1478980350837605</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3484276845040872</v>
+        <v>0.3246274492623964</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -1768,19 +1768,19 @@
         <v>16676</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10323</v>
+        <v>10813</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25010</v>
+        <v>24758</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1308577082964581</v>
+        <v>0.1308577082964582</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08100564310075187</v>
+        <v>0.08484858442019215</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1962610344381182</v>
+        <v>0.1942821872302805</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>43</v>
@@ -1789,19 +1789,19 @@
         <v>43849</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>32085</v>
+        <v>32747</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58698</v>
+        <v>57519</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1787190516388962</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1307723224048252</v>
+        <v>0.1334704738388416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2392418330146059</v>
+        <v>0.2344335225836883</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>50518</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41674</v>
+        <v>41893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57153</v>
+        <v>57576</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7609460408128705</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6277235475252415</v>
+        <v>0.6310269173548179</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8608749955395381</v>
+        <v>0.867249698024873</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -1914,19 +1914,19 @@
         <v>46894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39411</v>
+        <v>39407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53886</v>
+        <v>53200</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6396266189458041</v>
+        <v>0.6396266189458043</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5375543087730041</v>
+        <v>0.5375060593326217</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7349991368293278</v>
+        <v>0.7256338480024002</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>102</v>
@@ -1935,19 +1935,19 @@
         <v>97413</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>86304</v>
+        <v>84443</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107393</v>
+        <v>108047</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6972791814426516</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6177635141868922</v>
+        <v>0.6044427309730956</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7687180196208173</v>
+        <v>0.7733960625943727</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>7534</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2869</v>
+        <v>2484</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15376</v>
+        <v>15076</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1134874435566306</v>
+        <v>0.1134874435566305</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04321688463991663</v>
+        <v>0.03741220232785487</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2316111190657171</v>
+        <v>0.2270853270705176</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1985,19 +1985,19 @@
         <v>13472</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8548</v>
+        <v>8606</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19690</v>
+        <v>19784</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1837544742952199</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1165973684960559</v>
+        <v>0.1173834840814576</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2685725995650806</v>
+        <v>0.2698472174434776</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>27</v>
@@ -2006,19 +2006,19 @@
         <v>21006</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14009</v>
+        <v>14084</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30735</v>
+        <v>30888</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1503626700912458</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.100273776570694</v>
+        <v>0.1008158255717281</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2199983575083151</v>
+        <v>0.2210933456989312</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>8336</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3585</v>
+        <v>3618</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16121</v>
+        <v>16719</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.125566515630499</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05399884875917696</v>
+        <v>0.0544932157973075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2428204160602765</v>
+        <v>0.2518408208721191</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2056,19 +2056,19 @@
         <v>12949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7653</v>
+        <v>8313</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19136</v>
+        <v>18991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1766189067589757</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1043865733525405</v>
+        <v>0.1133840445840913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2610114011482239</v>
+        <v>0.2590266582114617</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -2077,19 +2077,19 @@
         <v>21285</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14186</v>
+        <v>14071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30620</v>
+        <v>32209</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1523581484661027</v>
+        <v>0.1523581484661026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1015446459910303</v>
+        <v>0.1007231398767725</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2191760471833077</v>
+        <v>0.2305515045800434</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>313671</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>293599</v>
+        <v>292697</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>332168</v>
+        <v>334243</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7517782471072439</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7036720273108634</v>
+        <v>0.7015092705756707</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7961092479667572</v>
+        <v>0.8010825478787154</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>398</v>
@@ -2202,19 +2202,19 @@
         <v>307800</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>292431</v>
+        <v>290927</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>322780</v>
+        <v>322670</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7723091542312269</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.733747215213301</v>
+        <v>0.7299726446524005</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8098955264761706</v>
+        <v>0.8096207644477826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>664</v>
@@ -2223,19 +2223,19 @@
         <v>621471</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>597483</v>
+        <v>593383</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>646038</v>
+        <v>642725</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7618084736223546</v>
+        <v>0.7618084736223544</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7324030708528391</v>
+        <v>0.7273770694512145</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7919226529713708</v>
+        <v>0.7878620088964583</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>47444</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35598</v>
+        <v>34821</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63553</v>
+        <v>63445</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1137105199180333</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.085317593416918</v>
+        <v>0.08345558285080762</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1523169235024485</v>
+        <v>0.1520596671395319</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -2273,19 +2273,19 @@
         <v>42612</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32557</v>
+        <v>32960</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53541</v>
+        <v>55025</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1069177850961278</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08168987855584894</v>
+        <v>0.08270043273057824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1343414375867449</v>
+        <v>0.138064259750818</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -2294,19 +2294,19 @@
         <v>90056</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73685</v>
+        <v>72169</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109879</v>
+        <v>108057</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.110391978340238</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09032408185845743</v>
+        <v>0.08846562439537774</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1346918758611967</v>
+        <v>0.1324576002821052</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>56123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43296</v>
+        <v>40603</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>74093</v>
+        <v>73077</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1345112329747228</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1037683120567431</v>
+        <v>0.09731296299253452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1775781168321822</v>
+        <v>0.1751439701680867</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -2344,19 +2344,19 @@
         <v>48133</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36842</v>
+        <v>36373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61332</v>
+        <v>60541</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1207730606726451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09244030711194325</v>
+        <v>0.0912654280198673</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1538892134018644</v>
+        <v>0.1519059530326558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -2365,19 +2365,19 @@
         <v>104257</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>87667</v>
+        <v>86333</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>126989</v>
+        <v>126635</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1277995480374075</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1074631707911279</v>
+        <v>0.1058280749710166</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1556655415527574</v>
+        <v>0.1552313490480648</v>
       </c>
     </row>
     <row r="27">
